--- a/src/main/resources/exceltestdata/testdata.xlsx
+++ b/src/main/resources/exceltestdata/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maantic-workspace\IntelliJ-workplace\pega-automation-framework\src\main\resources\exceltestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\pega-automation-framework\src\main\resources\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{FCA13371-F561-4713-87B6-287FA6CB63E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9125161-73C9-45EC-A5F0-C43EB8A962D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7254C25-718B-414E-80A5-66B845B6E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GBT" sheetId="3" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Param12</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected </t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -155,13 +152,16 @@
   </si>
   <si>
     <t>HarryKane</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,24 +544,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,43 +611,43 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -663,46 +663,46 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -721,24 +721,24 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
